--- a/运行数据/运行结果.xlsx
+++ b/运行数据/运行结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\1 贝叶斯优化代码（github同步）\ade\运行数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BCD3FA-C5A9-4D47-99CA-67990DCAC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613C8D0-8BAF-4EDC-879E-208A98F3CBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="975" yWindow="2430" windowWidth="25155" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>初始样本</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LHS采样 + 贝叶斯优化 + 范围收缩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>30（acqLHS采样）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -152,7 +148,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30（10LHS + 非线性回归 +20wLHS采样）</t>
+    <t>15（LHS采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30（acq = ei  LHS采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30（acq = ei 随机采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15（10LHS + 非线性回归 +20wLHS采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.614s (第27个配置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256.358s （第36个配置）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terasort20G        LHS采样 + 贝叶斯优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terasort20G                  LHS采样 + 贝叶斯优化 + 范围收缩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,18 +338,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,22 +371,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -361,6 +393,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>872895</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27558956-7C21-46CE-9F33-79161295EED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6128844" y="5084381"/>
+          <a:ext cx="4485827" cy="3364370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6571</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647361</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E00B9C8-7A03-405C-A93E-A2E077EFE3F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="689743" y="5097517"/>
+          <a:ext cx="4056652" cy="3042489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,362 +779,370 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="R3" s="7" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="R3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="R4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="J5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="R5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="R6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="R7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="J13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="J4" s="10" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="R4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="J5" s="10" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="R5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="13"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="J6" s="10" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="R6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="13"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="J7" s="11" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="J17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="R7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="14" t="s">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="J23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="15"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="J13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="J14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="J15" s="10" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="J16" s="10" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="J17" s="11" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="J27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="J24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="J25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="J26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="J27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="Q29" s="1"/>
@@ -1025,6 +1170,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="J27:K27"/>
@@ -1041,56 +1233,10 @@
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/运行数据/运行结果.xlsx
+++ b/运行数据/运行结果.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\1 贝叶斯优化代码（github同步）\ade\运行数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613C8D0-8BAF-4EDC-879E-208A98F3CBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46FC54-79DA-4DC0-8019-27C823F1B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>初始样本</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>以前优化结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>88s</t>
   </si>
   <si>
@@ -132,14 +128,6 @@
     <t>112s</t>
   </si>
   <si>
-    <t>方案一：使用遗传算法直接搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案二：使用指标和ipc分析找重要指标+GA搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>方案三：迭代建模+GA搜索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,18 +152,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.5h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>256.614s (第27个配置）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>256.358s （第36个配置）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,6 +165,110 @@
   </si>
   <si>
     <t>Terasort20G                  LHS采样 + 贝叶斯优化 + 范围收缩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案一：使用遗传算法直接搜索（sizepop=30，niter=10）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案二：交互强度分析重要指标+GA搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1560s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化耗时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化倍数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>169.824s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>204.236s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22379min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案三：迭代建模200个配置+GA搜索400*100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.389s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1845min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>295min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>447min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.08倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terasort-20G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcount-100G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordcount-100G 以前优化结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>terasort-20G 以前优化结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1934min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.45倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -227,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -330,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -338,43 +428,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,16 +490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>663465</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19706</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>118243</xdr:rowOff>
+      <xdr:rowOff>52554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>872895</xdr:colOff>
+      <xdr:colOff>912309</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>171854</xdr:rowOff>
+      <xdr:rowOff>106165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -437,7 +528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6128844" y="5084381"/>
+          <a:off x="6168258" y="5163209"/>
           <a:ext cx="4485827" cy="3364370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -763,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:W34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:O23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,34 +869,39 @@
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="R3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="R3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4"/>
@@ -815,7 +911,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="4"/>
@@ -825,19 +921,19 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="R4" s="3" t="s">
-        <v>27</v>
+      <c r="R4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="V4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
@@ -847,7 +943,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="4"/>
@@ -857,19 +953,19 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="R5" s="3" t="s">
-        <v>28</v>
+      <c r="R5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="V5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4"/>
@@ -879,7 +975,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="4"/>
@@ -889,19 +985,19 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
-      <c r="R6" s="3" t="s">
-        <v>29</v>
+      <c r="R6" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="V6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7"/>
@@ -911,7 +1007,10 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
-      <c r="J7" s="6" t="s">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="7"/>
@@ -921,37 +1020,40 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="8"/>
-      <c r="R7" s="6" t="s">
-        <v>24</v>
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
+      <c r="V7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="16"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="J13" s="11" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="4"/>
@@ -961,7 +1063,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="4"/>
@@ -972,8 +1074,8 @@
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="4"/>
@@ -983,7 +1085,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
@@ -994,8 +1096,8 @@
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4"/>
@@ -1005,7 +1107,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1016,8 +1118,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7"/>
@@ -1027,7 +1129,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
-      <c r="J17" s="6" t="s">
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="7"/>
@@ -1037,126 +1142,224 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="8"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="J23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="11"/>
+      <c r="R23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="11"/>
+      <c r="X23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="J23" s="11" t="s">
+      <c r="Y23" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="R24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" s="14"/>
+      <c r="X24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="R25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" s="14"/>
+      <c r="X25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="R26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="14"/>
+      <c r="X26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
-      <c r="J27" s="6" t="s">
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="8"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="16"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
@@ -1169,54 +1372,16 @@
       <c r="R34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
+  <mergeCells count="72">
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:W25"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="J27:K27"/>
@@ -1233,6 +1398,53 @@
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:O14"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运行数据/运行结果.xlsx
+++ b/运行数据/运行结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\1 贝叶斯优化代码（github同步）\ade\运行数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\ade\运行数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46FC54-79DA-4DC0-8019-27C823F1B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381BED7-BEE5-40C6-ACB1-CB9C5771B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>初始样本</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,19 +122,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>88s</t>
-  </si>
-  <si>
     <t>默认配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>116s</t>
-  </si>
-  <si>
-    <t>112s</t>
-  </si>
-  <si>
     <t>方案三：迭代建模+GA搜索</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,6 +267,70 @@
   </si>
   <si>
     <t>5.8倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各50%ganrs采样 + 贝叶斯优化 + 范围收缩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15（acq=ei随机采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44（50%RS+50%GAN）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150.806s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>145.687s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.55倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22（50%RS+50%GAN）取奇数行odd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.824s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88.895s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112.733s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1052min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11062min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1258min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,19 +491,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -453,19 +524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,13 +554,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19706</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>52554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>912309</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>898022</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>106165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -542,13 +604,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6571</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647361</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1021</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>47040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -580,6 +642,106 @@
         <a:xfrm>
           <a:off x="689743" y="5097517"/>
           <a:ext cx="4056652" cy="3042489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627969</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229732</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8C2157-6F11-47E6-A1D5-E73828A9713F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627969" y="4966608"/>
+          <a:ext cx="4135663" cy="3084058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>789213</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D50DAE-76E7-438A-B6FE-20659F009D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5817054" y="4966608"/>
+          <a:ext cx="4177392" cy="3133045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,570 +1016,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:W3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="11.265625" customWidth="1"/>
+    <col min="15" max="15" width="12.59765625" customWidth="1"/>
+    <col min="18" max="18" width="18.265625" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="J3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="R3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15"/>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="15"/>
+      <c r="R4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="15"/>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="15"/>
+      <c r="R5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="15"/>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="15"/>
+      <c r="R6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="16"/>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="J13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="15"/>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="15"/>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="15"/>
+      <c r="J16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="16"/>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="16"/>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="J23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="15"/>
+      <c r="J24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="15"/>
+      <c r="J25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="15"/>
+      <c r="J26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="16"/>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="16"/>
+      <c r="P27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="J51" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="14"/>
+      <c r="R51" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="14"/>
+      <c r="X51" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="15"/>
+      <c r="J52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="15"/>
+      <c r="R52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W52" s="7"/>
+      <c r="X52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
-      <c r="R3" s="9" t="s">
+      <c r="Y52" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="R4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="J5" s="6" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="15"/>
+      <c r="J53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="R5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="13" t="s">
+      <c r="K53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="15"/>
+      <c r="R53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W53" s="7"/>
+      <c r="X53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="15"/>
+      <c r="J54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="15"/>
+      <c r="R54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W54" s="7"/>
+      <c r="X54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="16"/>
+      <c r="H55" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="16"/>
+      <c r="P55" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="R6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="J13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="J16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="J23" s="9" t="s">
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="R23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
-      <c r="X23" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="R24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W24" s="14"/>
-      <c r="X24" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="J25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="R25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W25" s="14"/>
-      <c r="X25" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="J26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="R26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="W26" s="14"/>
-      <c r="X26" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="8"/>
-      <c r="P27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="16"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="17:18" x14ac:dyDescent="0.2">
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="W55" s="11"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="V7:W7"/>
+  <mergeCells count="90">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="J23:O23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:O24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="B17:C17"/>
@@ -1428,23 +1722,45 @@
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="R51:W51"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="V53:W53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运行数据/运行结果.xlsx
+++ b/运行数据/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\ade\运行数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381BED7-BEE5-40C6-ACB1-CB9C5771B3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8EB832-2908-43E3-8303-3549AA5013E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,28 +491,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,10 +509,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -1037,30 +1037,30 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="J3" s="12" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="R3" s="12" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="R3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="14"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9"/>
       <c r="X3" t="s">
         <v>36</v>
       </c>
@@ -1069,36 +1069,36 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-      <c r="J4" s="4" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="J4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="15"/>
-      <c r="R4" s="4" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="R4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="6" t="s">
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="14"/>
       <c r="X4" t="s">
         <v>72</v>
       </c>
@@ -1107,36 +1107,36 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
-      <c r="J5" s="4" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="J5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="15"/>
-      <c r="R5" s="4" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+      <c r="R5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="6" t="s">
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="7"/>
+      <c r="W5" s="14"/>
       <c r="X5" t="s">
         <v>73</v>
       </c>
@@ -1145,36 +1145,36 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="J6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="J6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="15"/>
-      <c r="R6" s="4" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="R6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="6" t="s">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="W6" s="7"/>
+      <c r="W6" s="14"/>
       <c r="X6" t="s">
         <v>74</v>
       </c>
@@ -1183,263 +1183,263 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="16"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
       <c r="P7" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10" t="s">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="11"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="15"/>
-      <c r="J14" s="4" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="J14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="15"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="15"/>
-      <c r="J15" s="4" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="J15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="15"/>
-      <c r="J16" s="4" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="J16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="15"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="16"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
       <c r="P17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="J23" s="12" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="J23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="15"/>
-      <c r="J24" s="4" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="J24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="15"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="15"/>
-      <c r="J25" s="4" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="J25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="15"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="15"/>
-      <c r="J26" s="4" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="J26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="15"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="16"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
       <c r="H27" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="16"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
       <c r="P27" t="s">
         <v>67</v>
       </c>
@@ -1450,30 +1450,30 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="J51" s="12" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="J51" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="14"/>
-      <c r="R51" s="12" t="s">
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="9"/>
+      <c r="R51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="14"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="9"/>
       <c r="X51" t="s">
         <v>36</v>
       </c>
@@ -1482,36 +1482,36 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="15"/>
-      <c r="J52" s="4" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="J52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="15"/>
-      <c r="R52" s="4" t="s">
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
+      <c r="R52" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="6" t="s">
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W52" s="7"/>
+      <c r="W52" s="14"/>
       <c r="X52" t="s">
         <v>53</v>
       </c>
@@ -1520,36 +1520,36 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="15"/>
-      <c r="J53" s="4" t="s">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="J53" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5" t="s">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="15"/>
-      <c r="R53" s="4" t="s">
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
+      <c r="R53" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="6" t="s">
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="W53" s="7"/>
+      <c r="W53" s="14"/>
       <c r="X53" t="s">
         <v>40</v>
       </c>
@@ -1558,36 +1558,36 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="15"/>
-      <c r="J54" s="4" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="J54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5" t="s">
+      <c r="K54" s="11"/>
+      <c r="L54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="15"/>
-      <c r="R54" s="4" t="s">
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+      <c r="R54" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="6" t="s">
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="7"/>
+      <c r="W54" s="14"/>
       <c r="X54" t="s">
         <v>44</v>
       </c>
@@ -1596,42 +1596,42 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="16"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
       <c r="H55" t="s">
         <v>48</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="J55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9" t="s">
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="16"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
       <c r="P55" t="s">
         <v>48</v>
       </c>
-      <c r="R55" s="8" t="s">
+      <c r="R55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="10" t="s">
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="W55" s="11"/>
+      <c r="W55" s="16"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.4">
       <c r="R56" s="2"/>
@@ -1671,6 +1671,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="R51:W51"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B23:G23"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="J23:O23"/>
@@ -1687,80 +1761,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="J13:O13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="R51:W51"/>
-    <mergeCell ref="R52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="V53:W53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运行数据/运行结果.xlsx
+++ b/运行数据/运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\ade\运行数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8EB832-2908-43E3-8303-3549AA5013E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5C27DD-95F0-4525-BAFD-1B00150C23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>初始样本</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>44（50%RS+50%GAN）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>150.806s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,10 +302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22（50%RS+50%GAN）取奇数行odd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>116.824s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,6 +323,82 @@
   </si>
   <si>
     <t>1258min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20（acq=ei随机采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.555s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.37倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30（50%RS+50%GAN）（3+3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165.76s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51（acq=ei随机采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44（50%RS+50%GAN wordcount-44.csv）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22（50%RS+50%GAN wordcount-44.csv）取奇数行odd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8（50%RS+50%GAN  wordcount-44.csv）前8个样本（2+2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29（acq=ei随机采样）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>167.805s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>161.593s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.55倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.9倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,6 +559,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,6 +569,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,15 +585,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +598,12 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,14 +629,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19706</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>52554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>898022</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>106165</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>64471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,8 +665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6168258" y="5163209"/>
-          <a:ext cx="4485827" cy="3364370"/>
+          <a:off x="5849006" y="15206829"/>
+          <a:ext cx="3980794" cy="3007530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,14 +679,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6571</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>131379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1021</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47040</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,16 +727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>627969</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:rowOff>4084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>229732</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121103</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -690,8 +765,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627969" y="4966608"/>
-          <a:ext cx="4135663" cy="3084058"/>
+          <a:off x="661307" y="4938034"/>
+          <a:ext cx="3639231" cy="2713858"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,15 +778,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>253119</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:rowOff>80965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>789213</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139474</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>51184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,8 +815,208 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5817054" y="4966608"/>
-          <a:ext cx="4177392" cy="3133045"/>
+          <a:off x="6082419" y="5014915"/>
+          <a:ext cx="3499731" cy="2613407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80961</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>166691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46531116-BAC0-4012-93FB-500C1AC95E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801599" y="5005389"/>
+          <a:ext cx="3886202" cy="2914652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>641349</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0E00E0-631C-4993-A8BF-F761A1029410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12730163" y="9596438"/>
+          <a:ext cx="3575049" cy="2681287"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>147634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C6BE4A-ED0C-4FD0-8EE2-8809E13DFD35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="814388" y="9591673"/>
+          <a:ext cx="3619498" cy="2714624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>120253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EA03E5-DC4A-482A-AC54-3AF40235B3BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019801" y="9744075"/>
+          <a:ext cx="3614737" cy="2711053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1037,30 +1312,30 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
-      <c r="R3" s="7" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="R3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="9"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="13"/>
       <c r="X3" t="s">
         <v>36</v>
       </c>
@@ -1069,633 +1344,902 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="J4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="R4" s="10" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="R4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="W4" s="14"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="15"/>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y4">
         <v>9.4</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="J5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="R5" s="10" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="R5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" s="14"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="15"/>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y5">
         <v>12.4</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="J6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="R6" s="10" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="R6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="14"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="15"/>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y6">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
       <c r="P7" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="15" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="16"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="J13" s="7" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="J14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="J14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="J15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="J16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="J16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
       <c r="P17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="J23" s="7" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="J23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B24" s="10" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="S23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="S24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="J25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="S25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="J26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="S26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="J24" s="10" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="J49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="S49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="13"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B25" s="10" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="J50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+      <c r="S50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9"/>
+      <c r="U50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="19"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B51" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="J25" s="10" t="s">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="10"/>
+      <c r="S51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="10"/>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="J26" s="10" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="J52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="10"/>
+      <c r="S52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="10"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-      <c r="P27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+      <c r="K53" s="6"/>
+      <c r="L53" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="7"/>
+      <c r="P53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B51" s="7" t="s">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="J51" s="7" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="J82" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
-      <c r="R51" s="7" t="s">
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="13"/>
+      <c r="R82" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="9"/>
-      <c r="X51" t="s">
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="13"/>
+      <c r="X82" t="s">
         <v>36</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y82" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B52" s="10" t="s">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="J52" s="10" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10"/>
+      <c r="J83" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
-      <c r="R52" s="10" t="s">
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="10"/>
+      <c r="R83" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="13" t="s">
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="W52" s="14"/>
-      <c r="X52" t="s">
+      <c r="W83" s="15"/>
+      <c r="X83" t="s">
         <v>53</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Y83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B53" s="10" t="s">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B84" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11" t="s">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="J53" s="10" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="J84" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
-      <c r="R53" s="10" t="s">
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="10"/>
+      <c r="R84" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="13" t="s">
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W53" s="14"/>
-      <c r="X53" t="s">
+      <c r="W84" s="15"/>
+      <c r="X84" t="s">
         <v>40</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Y84" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B54" s="10" t="s">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B85" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="J54" s="10" t="s">
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="J85" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-      <c r="R54" s="10" t="s">
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="10"/>
+      <c r="R85" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="13" t="s">
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="14"/>
-      <c r="X54" t="s">
+      <c r="W85" s="15"/>
+      <c r="X85" t="s">
         <v>44</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y85" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="B55" s="4" t="s">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
-      <c r="H55" t="s">
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+      <c r="H86" t="s">
         <v>48</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5" t="s">
+      <c r="K86" s="6"/>
+      <c r="L86" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="6"/>
-      <c r="P55" t="s">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="7"/>
+      <c r="P86" t="s">
         <v>48</v>
       </c>
-      <c r="R55" s="4" t="s">
+      <c r="R86" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="15" t="s">
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W55" s="16"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="W86" s="17"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q88" s="1"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="R54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="R51:W51"/>
-    <mergeCell ref="R52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="R53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:O55"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="J51:O51"/>
+  <mergeCells count="126">
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:O51"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="L53:O53"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:X51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:X52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="R82:W82"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:O85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:O86"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="J82:O82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:O83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:O84"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="L14:O14"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:X50"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="R6:U6"/>
@@ -1704,18 +2248,30 @@
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:G86"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:G83"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="B17:C17"/>
@@ -1726,41 +2282,12 @@
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:O5"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
